--- a/documents/8.2.ProjectTestCaseSprint2.xlsx
+++ b/documents/8.2.ProjectTestCaseSprint2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DTU\Doantnpush\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7970191F-728F-47DD-AED2-D2933DCCEC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848E86B7-83EF-434A-9900-9E281F4487CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="576" windowWidth="23256" windowHeight="13176" tabRatio="858" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="858" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trường hợp kiểm thử" sheetId="12" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="446">
   <si>
     <t>TEST CASE SYSTEM SPRINT 2</t>
   </si>
@@ -1375,6 +1375,12 @@
   </si>
   <si>
     <t>Ngày tạo được điền tự động bằng ngày hiện tại của hệ thống</t>
+  </si>
+  <si>
+    <t>Danh sách lọc không hoạt động</t>
+  </si>
+  <si>
+    <t>Không chuyển được trang</t>
   </si>
 </sst>
 </file>
@@ -2225,6 +2231,24 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2243,23 +2267,17 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2285,16 +2303,25 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2306,25 +2333,7 @@
     <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2345,9 +2354,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2375,29 +2381,29 @@
     <xf numFmtId="0" fontId="29" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3267,8 +3273,8 @@
   </sheetPr>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3292,25 +3298,25 @@
       <c r="A1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="109"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="112"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
@@ -3372,68 +3378,68 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="113" t="s">
+      <c r="A30" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="113" t="s">
+      <c r="F30" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="113" t="s">
+      <c r="G30" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="113"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="114" t="s">
+      <c r="H30" s="109"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="115" t="s">
+      <c r="K30" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113" t="s">
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="113"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113" t="s">
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="113"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="115" t="s">
+      <c r="H31" s="109"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
     </row>
     <row r="32" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="113"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
       <c r="G32" s="94" t="s">
         <v>35</v>
       </c>
@@ -3443,7 +3449,7 @@
       <c r="I32" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="114"/>
+      <c r="J32" s="107"/>
       <c r="K32" s="95" t="s">
         <v>35</v>
       </c>
@@ -3453,25 +3459,25 @@
       <c r="M32" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="113"/>
+      <c r="N32" s="109"/>
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="116" t="s">
+      <c r="A33" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="117"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="117"/>
-      <c r="N33" s="117"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
     </row>
     <row r="34" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="s">
@@ -4291,13 +4297,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="A33:N33"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A30:A32"/>
@@ -4306,6 +4305,13 @@
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="F30:F32"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G34:G43 G45:G53 K34:K43 K45:K53" xr:uid="{84344067-E5A3-4FAB-BEB1-B41ADC925F9A}">
@@ -4325,8 +4331,8 @@
   </sheetPr>
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:N33"/>
+    <sheetView topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -4350,25 +4356,25 @@
       <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="123"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="127"/>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="128" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="130"/>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
@@ -4431,68 +4437,68 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="113" t="s">
+      <c r="A30" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="113" t="s">
+      <c r="F30" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="113" t="s">
+      <c r="G30" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="113"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="114" t="s">
+      <c r="H30" s="109"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="115" t="s">
+      <c r="K30" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113" t="s">
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="113"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113" t="s">
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="113"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="115" t="s">
+      <c r="H31" s="109"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
     </row>
     <row r="32" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="113"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
       <c r="G32" s="94" t="s">
         <v>35</v>
       </c>
@@ -4502,7 +4508,7 @@
       <c r="I32" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="114"/>
+      <c r="J32" s="107"/>
       <c r="K32" s="95" t="s">
         <v>35</v>
       </c>
@@ -4512,25 +4518,25 @@
       <c r="M32" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="127"/>
+      <c r="N32" s="119"/>
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="128" t="s">
+      <c r="A33" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="129"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="130"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="121"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="122"/>
     </row>
     <row r="34" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="s">
@@ -4911,10 +4917,10 @@
       <c r="N42" s="41"/>
     </row>
     <row r="43" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="119" t="s">
+      <c r="A43" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="B43" s="120"/>
+      <c r="B43" s="124"/>
       <c r="C43" s="65"/>
       <c r="D43" s="65"/>
       <c r="E43" s="65"/>
@@ -5239,7 +5245,7 @@
         <v>104</v>
       </c>
       <c r="F51" s="93" t="s">
-        <v>104</v>
+        <v>444</v>
       </c>
       <c r="G51" s="100" t="s">
         <v>76</v>
@@ -5392,13 +5398,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="A33:N33"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -5408,6 +5407,13 @@
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="F30:F32"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="K44:K54 G34:G42 G44:G54 K34:K42" xr:uid="{D355D734-886D-4148-88B6-DC4DC8E55658}">
@@ -5427,7 +5433,7 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:B41"/>
     </sheetView>
   </sheetViews>
@@ -5451,25 +5457,25 @@
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="136"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="136"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -5532,68 +5538,68 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="140" t="s">
+      <c r="B30" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="140" t="s">
+      <c r="C30" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="140" t="s">
+      <c r="D30" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="140" t="s">
+      <c r="E30" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="140" t="s">
+      <c r="F30" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="113" t="s">
+      <c r="G30" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="113"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="114" t="s">
+      <c r="H30" s="109"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="115" t="s">
+      <c r="K30" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113" t="s">
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="140"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="113" t="s">
+      <c r="A31" s="137"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="113"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="115" t="s">
+      <c r="H31" s="109"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
     </row>
     <row r="32" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="140"/>
-      <c r="B32" s="140"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
       <c r="G32" s="94" t="s">
         <v>35</v>
       </c>
@@ -5603,7 +5609,7 @@
       <c r="I32" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="114"/>
+      <c r="J32" s="107"/>
       <c r="K32" s="95" t="s">
         <v>35</v>
       </c>
@@ -5613,25 +5619,25 @@
       <c r="M32" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="113"/>
+      <c r="N32" s="109"/>
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="132" t="s">
+      <c r="A33" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="133"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="133"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="133"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="140"/>
+      <c r="M33" s="140"/>
+      <c r="N33" s="140"/>
     </row>
     <row r="34" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="66" t="s">
@@ -5928,10 +5934,10 @@
       <c r="N40" s="70"/>
     </row>
     <row r="41" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="119" t="s">
+      <c r="A41" s="123" t="s">
         <v>178</v>
       </c>
-      <c r="B41" s="131"/>
+      <c r="B41" s="138"/>
       <c r="C41" s="65"/>
       <c r="D41" s="65"/>
       <c r="E41" s="65"/>
@@ -6375,6 +6381,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J30:J32"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A30:A32"/>
@@ -6383,14 +6397,6 @@
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="F30:F32"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="A33:N33"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J30:J32"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="K42:K51 K34:K40 G34:G40 G42:G51" xr:uid="{A03FDA32-51F5-41B4-81FD-90E9A0406261}">
@@ -6410,7 +6416,7 @@
   </sheetPr>
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
@@ -6435,25 +6441,25 @@
       <c r="A1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="144"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="147"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="38"/>
@@ -6515,68 +6521,68 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="113" t="s">
+      <c r="A30" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="113" t="s">
+      <c r="F30" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="113" t="s">
+      <c r="G30" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="113"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="114" t="s">
+      <c r="H30" s="109"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="115" t="s">
+      <c r="K30" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113" t="s">
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="113"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113" t="s">
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="113"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="115" t="s">
+      <c r="H31" s="109"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
     </row>
     <row r="32" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="113"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
       <c r="G32" s="94" t="s">
         <v>35</v>
       </c>
@@ -6586,7 +6592,7 @@
       <c r="I32" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="114"/>
+      <c r="J32" s="107"/>
       <c r="K32" s="95" t="s">
         <v>35</v>
       </c>
@@ -6596,25 +6602,25 @@
       <c r="M32" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="113"/>
+      <c r="N32" s="109"/>
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="132" t="s">
+      <c r="A33" s="139" t="s">
         <v>209</v>
       </c>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="147"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="141"/>
+      <c r="N33" s="141"/>
     </row>
     <row r="34" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="s">
@@ -7197,7 +7203,7 @@
         <v>265</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>265</v>
+        <v>445</v>
       </c>
       <c r="G48" s="100" t="s">
         <v>76</v>
@@ -7308,13 +7314,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="A33:N33"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A30:A32"/>
@@ -7323,6 +7322,13 @@
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="F30:F32"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="K45:K50 K34:K43 G34:G43 G45:G50" xr:uid="{F302C5F9-7DB8-4DE3-9181-C30070827F2F}">
@@ -7342,7 +7348,7 @@
   </sheetPr>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B35" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -7367,25 +7373,25 @@
       <c r="A1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="144"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="147"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="38"/>
@@ -7448,28 +7454,28 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="140" t="s">
+      <c r="B30" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="140" t="s">
+      <c r="C30" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="140" t="s">
+      <c r="D30" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="140" t="s">
+      <c r="E30" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="140" t="s">
+      <c r="F30" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="140" t="s">
+      <c r="G30" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="140"/>
+      <c r="H30" s="137"/>
       <c r="I30" s="154"/>
       <c r="J30" s="148" t="s">
         <v>30</v>
@@ -7477,39 +7483,39 @@
       <c r="K30" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="140"/>
-      <c r="M30" s="140"/>
-      <c r="N30" s="140" t="s">
+      <c r="L30" s="137"/>
+      <c r="M30" s="137"/>
+      <c r="N30" s="137" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="140"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140" t="s">
+      <c r="A31" s="137"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="140"/>
+      <c r="H31" s="137"/>
       <c r="I31" s="154"/>
       <c r="J31" s="148"/>
       <c r="K31" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="140"/>
-      <c r="M31" s="140"/>
-      <c r="N31" s="140"/>
+      <c r="L31" s="137"/>
+      <c r="M31" s="137"/>
+      <c r="N31" s="137"/>
     </row>
     <row r="32" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="140"/>
-      <c r="B32" s="140"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
       <c r="G32" s="97" t="s">
         <v>35</v>
       </c>
@@ -8283,13 +8289,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="A33:N33"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A30:A32"/>
@@ -8298,6 +8297,13 @@
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="F30:F32"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="K44:K51 K34:K42 G34:G42 G44:G51" xr:uid="{2F0B3C52-6429-4297-AA53-DCEE5122E1BF}">
@@ -8317,7 +8323,7 @@
   </sheetPr>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView topLeftCell="D33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -8341,25 +8347,25 @@
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="136"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="136"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -8422,68 +8428,68 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="113" t="s">
+      <c r="A30" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="113" t="s">
+      <c r="F30" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="113" t="s">
+      <c r="G30" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="113"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="114" t="s">
+      <c r="H30" s="109"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="115" t="s">
+      <c r="K30" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113" t="s">
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="113"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113" t="s">
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="113"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="115" t="s">
+      <c r="H31" s="109"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
     </row>
     <row r="32" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="113"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
       <c r="G32" s="94" t="s">
         <v>35</v>
       </c>
@@ -8493,7 +8499,7 @@
       <c r="I32" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="114"/>
+      <c r="J32" s="107"/>
       <c r="K32" s="95" t="s">
         <v>35</v>
       </c>
@@ -8503,7 +8509,7 @@
       <c r="M32" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="127"/>
+      <c r="N32" s="119"/>
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="155" t="s">
@@ -9257,12 +9263,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
     <mergeCell ref="A33:M33"/>
     <mergeCell ref="J30:J32"/>
     <mergeCell ref="A30:A32"/>
@@ -9272,6 +9272,12 @@
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G42:G51 G34:G40 K34:K40 K42:K51" xr:uid="{FA92A43D-DE2E-4849-9539-CFA5AB734A6D}">
@@ -9291,7 +9297,7 @@
   </sheetPr>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -9316,25 +9322,25 @@
       <c r="A1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="161"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="159"/>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="160" t="s">
         <v>374</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="164"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="162"/>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
@@ -9397,68 +9403,68 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="113" t="s">
+      <c r="A30" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="113" t="s">
+      <c r="F30" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="113" t="s">
+      <c r="G30" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="113"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="114" t="s">
+      <c r="H30" s="109"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="115" t="s">
+      <c r="K30" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113" t="s">
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="113"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113" t="s">
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="113"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="115" t="s">
+      <c r="H31" s="109"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
     </row>
     <row r="32" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="113"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
       <c r="G32" s="94" t="s">
         <v>35</v>
       </c>
@@ -9468,7 +9474,7 @@
       <c r="I32" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="114"/>
+      <c r="J32" s="107"/>
       <c r="K32" s="95" t="s">
         <v>35</v>
       </c>
@@ -9478,24 +9484,24 @@
       <c r="M32" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="127"/>
+      <c r="N32" s="119"/>
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="157" t="s">
+      <c r="A33" s="163" t="s">
         <v>375</v>
       </c>
-      <c r="B33" s="158"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="164"/>
+      <c r="M33" s="164"/>
       <c r="N33" s="22"/>
     </row>
     <row r="34" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10232,13 +10238,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
     <mergeCell ref="A33:M33"/>
     <mergeCell ref="J30:J32"/>
     <mergeCell ref="A30:A32"/>
@@ -10247,6 +10246,13 @@
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G34:G40 G42:G51 K34:K40 K42:K51" xr:uid="{23EE8A4E-824F-40AF-A0D1-526F1757721D}">
